--- a/data/trans_dic/P55$auxiliar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.09725392798408072</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3241056919185007</v>
+        <v>0.3241056919185006</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01354777495571254</v>
@@ -697,7 +697,7 @@
         <v>0.1234188012347205</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3002519539164664</v>
+        <v>0.3002519539164665</v>
       </c>
     </row>
     <row r="5">
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.06175983834737483</v>
+        <v>0.06180698988867365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05956599521351573</v>
+        <v>0.08570759015097187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1708228275620104</v>
+        <v>0.1640918351620273</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1470715471625763</v>
+        <v>0.1420058308901505</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03758415264774701</v>
+        <v>0.03766522795158614</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2606370932169948</v>
+        <v>0.2628255281588582</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1381266277566149</v>
+        <v>0.1413471214501726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06525014783098446</v>
+        <v>0.06584766980968577</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.24637346048874</v>
+        <v>0.2454138423724169</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.3287806105530188</v>
+        <v>0.3378158136605899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3301643633458531</v>
+        <v>0.3399008373409378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3624970835213764</v>
+        <v>0.3619136229850047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1183375796193815</v>
+        <v>0.1197911723921895</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3765007510696385</v>
+        <v>0.3704101820662266</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2026639571572045</v>
+        <v>0.212654583685379</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3952611226765473</v>
+        <v>0.3936441649922774</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06955956405353073</v>
+        <v>0.06895309807093082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3203859379880307</v>
+        <v>0.3136103374836662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2050339281388498</v>
+        <v>0.2135632444035432</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3598560041990294</v>
+        <v>0.3614867122155922</v>
       </c>
     </row>
     <row r="7">
@@ -841,35 +841,35 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.02496670675022366</v>
+        <v>0.02414902995760151</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.1147910594531446</v>
+        <v>0.1052773568487129</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08839891660649708</v>
+        <v>0.09757229216434402</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01507554033899948</v>
+        <v>0.01565865566722583</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2028166195687279</v>
+        <v>0.198513671775795</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08465916599404461</v>
+        <v>0.08984947981445482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01005195201793374</v>
+        <v>0.01012697103887655</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1862102690906933</v>
+        <v>0.1849143267830392</v>
       </c>
     </row>
     <row r="9">
@@ -881,35 +881,35 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2275195669359355</v>
+        <v>0.208635154912721</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2986240224961652</v>
+        <v>0.309743908907323</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08109120015871434</v>
+        <v>0.07547083526120871</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2581906742231018</v>
+        <v>0.2450908402233207</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1319138010970486</v>
+        <v>0.1376928404269993</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3356268780660521</v>
+        <v>0.3242455419656546</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0491887553514174</v>
+        <v>0.05426242296583397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2117610562740817</v>
+        <v>0.2163160992162757</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08740439231632618</v>
+        <v>0.08200567807257313</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2996841293077015</v>
+        <v>0.2911762497281188</v>
       </c>
     </row>
     <row r="10">
@@ -975,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.052616243341852</v>
+        <v>0.05235829967830657</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07994759639346558</v>
+        <v>0.07903442369965043</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02067836334565978</v>
+        <v>0.02016020549525139</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1257677281493914</v>
+        <v>0.1257866094495569</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05671384689221232</v>
+        <v>0.05629118078921942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01689403090859865</v>
+        <v>0.01627288762363729</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1224334219292901</v>
+        <v>0.1248494018570929</v>
       </c>
     </row>
     <row r="12">
@@ -1011,37 +1011,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.172781313247091</v>
+        <v>0.2001404863895665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1809514401282055</v>
+        <v>0.1717163582513903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3064500180305128</v>
+        <v>0.3095895435298774</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.115176823682299</v>
+        <v>0.1373587714861611</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2862870155839916</v>
+        <v>0.2941787948694599</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2081649651038308</v>
+        <v>0.1900331279222737</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2864054117993197</v>
+        <v>0.2736515659867311</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07604748902978273</v>
+        <v>0.07136453130587223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2134689076145141</v>
+        <v>0.2044710835257121</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1591800379359442</v>
+        <v>0.1507474371988594</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2566294947613296</v>
+        <v>0.2505096580549959</v>
       </c>
     </row>
     <row r="13">
@@ -1107,31 +1107,31 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.04119466770422448</v>
+        <v>0.03995591845314752</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03053750398421989</v>
+        <v>0.03883330732225394</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09456801832639153</v>
+        <v>0.09273093767896276</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01540563403077356</v>
+        <v>0.01536688405412777</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1449664446619119</v>
+        <v>0.1388673635178479</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0325946859684432</v>
+        <v>0.03320098775436649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07569297530507674</v>
+        <v>0.06944454419156949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01123295847291189</v>
+        <v>0.01143333333706666</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1269497390823736</v>
+        <v>0.1235982262411464</v>
       </c>
     </row>
     <row r="15">
@@ -1142,38 +1142,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1866103056485594</v>
+        <v>0.1739748851986093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1394657674473517</v>
+        <v>0.1215615115372131</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1823923034294714</v>
+        <v>0.1790339803264803</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1782197710597153</v>
+        <v>0.1798023461079273</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2735036571550075</v>
+        <v>0.2693142119506957</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1236151052132629</v>
+        <v>0.1374928745779632</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2577601639987375</v>
+        <v>0.2541280603463904</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1468991014389964</v>
+        <v>0.1539351001267663</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1959321677634799</v>
+        <v>0.1866360382559455</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09795790934926098</v>
+        <v>0.09521034117091666</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.224098588838774</v>
+        <v>0.2188229642385797</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.06565127743669241</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2431065017285929</v>
+        <v>0.243106501728593</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02932022657278614</v>
@@ -1235,37 +1235,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.136087446431692</v>
+        <v>0.1302821596602174</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1447247939660779</v>
+        <v>0.141046188633938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.210921982752649</v>
+        <v>0.2118736230973851</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1160705975750892</v>
+        <v>0.1177630973217805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.197067673563111</v>
+        <v>0.1980521916810823</v>
       </c>
     </row>
     <row r="18">
@@ -1276,40 +1276,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2353682027443594</v>
+        <v>0.2331980904991981</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2383135323022577</v>
+        <v>0.2379631019614067</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2797732381955032</v>
+        <v>0.2794386144205389</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1860733383515584</v>
+        <v>0.190059709729097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2528345012014759</v>
+        <v>0.2521834645006395</v>
       </c>
     </row>
     <row r="19">
@@ -1581,37 +1581,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1655</v>
+        <v>2381</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9053</v>
+        <v>8696</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8972</v>
+        <v>8663</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2260</v>
+        <v>2265</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22121</v>
+        <v>22307</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12920</v>
+        <v>13221</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5737</v>
+        <v>5789</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>33968</v>
+        <v>33835</v>
       </c>
     </row>
     <row r="7">
@@ -1623,37 +1623,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>10698</v>
+        <v>10992</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9171</v>
+        <v>9442</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19211</v>
+        <v>19180</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5300</v>
+        <v>5365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22967</v>
+        <v>22596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12188</v>
+        <v>12789</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33547</v>
+        <v>33410</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5472</v>
+        <v>5424</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29969</v>
+        <v>29335</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18026</v>
+        <v>18776</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>49614</v>
+        <v>49839</v>
       </c>
     </row>
     <row r="8">
@@ -1757,35 +1757,35 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>1140</v>
+        <v>1103</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>4805</v>
+        <v>4406</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7809</v>
+        <v>8620</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1158</v>
+        <v>1203</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19194</v>
+        <v>18787</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11344</v>
+        <v>12039</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25416</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="11">
@@ -1797,35 +1797,35 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10388</v>
+        <v>9525</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>12499</v>
+        <v>12964</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5488</v>
+        <v>5108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22809</v>
+        <v>21651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10137</v>
+        <v>10581</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31763</v>
+        <v>30686</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5691</v>
+        <v>6278</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28375</v>
+        <v>28985</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10292</v>
+        <v>9656</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>40904</v>
+        <v>39743</v>
       </c>
     </row>
     <row r="12">
@@ -1935,31 +1935,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4151</v>
+        <v>4103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1066</v>
+        <v>1040</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8162</v>
+        <v>8163</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4529</v>
+        <v>4495</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1264</v>
+        <v>1218</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11583</v>
+        <v>11811</v>
       </c>
     </row>
     <row r="15">
@@ -1971,37 +1971,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4828</v>
+        <v>5592</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4209</v>
+        <v>3995</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9104</v>
+        <v>9197</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5352</v>
+        <v>6382</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14863</v>
+        <v>15273</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10735</v>
+        <v>9800</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18587</v>
+        <v>17759</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5174</v>
+        <v>4856</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17047</v>
+        <v>16328</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11912</v>
+        <v>11281</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24278</v>
+        <v>23699</v>
       </c>
     </row>
     <row r="16">
@@ -2111,31 +2111,31 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1836</v>
+        <v>1781</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2198</v>
+        <v>2796</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7402</v>
+        <v>7258</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16357</v>
+        <v>15669</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3100</v>
+        <v>3157</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8955</v>
+        <v>8216</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1217</v>
+        <v>1238</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>19981</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="19">
@@ -2146,38 +2146,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4312</v>
+        <v>4020</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5583</v>
+        <v>4867</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>8128</v>
+        <v>7978</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12830</v>
+        <v>12944</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21408</v>
+        <v>21080</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9742</v>
+        <v>10836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29084</v>
+        <v>28674</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13970</v>
+        <v>14639</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23180</v>
+        <v>22080</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10611</v>
+        <v>10313</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35272</v>
+        <v>34442</v>
       </c>
     </row>
     <row r="20">
@@ -2283,37 +2283,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23015</v>
+        <v>22033</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>40455</v>
+        <v>39427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>75350</v>
+        <v>75690</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49411</v>
+        <v>50132</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>103729</v>
+        <v>104247</v>
       </c>
     </row>
     <row r="23">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39806</v>
+        <v>39439</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>66616</v>
+        <v>66518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>99946</v>
+        <v>99827</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>79211</v>
+        <v>80908</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>133082</v>
+        <v>132740</v>
       </c>
     </row>
     <row r="24">
